--- a/AAA-Luban-Excel/Datas/Conditions.xlsx
+++ b/AAA-Luban-Excel/Datas/Conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE2A0A-333D-4FB1-B79B-684B42F63925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6BEE8-55B5-4AF1-921F-A16A80226813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="803" yWindow="248" windowWidth="13680" windowHeight="13079" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
